--- a/biology/Botanique/Walkers/Walkers.xlsx
+++ b/biology/Botanique/Walkers/Walkers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walkers est une entreprise agroalimentaire anglaise basée à Leicester en Angleterre, spécialisée dans la production de chips de pommes de terre et autres produits de grignotage. Elle appartient à Frito-Lay et est présente au Royaume-Uni et en Irlande.
-Walkers détient 47 % du marché britannique des chips[1]. 
-Le site de production Walkers de Leicester est l'une des plus importantes usines de fabrication de chips dans le monde, transformant environ 280 000 tonnes de pommes de terre chaque année[1].
+Walkers détient 47 % du marché britannique des chips. 
+Le site de production Walkers de Leicester est l'une des plus importantes usines de fabrication de chips dans le monde, transformant environ 280 000 tonnes de pommes de terre chaque année.
 </t>
         </is>
       </c>
